--- a/Excel/EposTierTile.xlsx
+++ b/Excel/EposTierTile.xlsx
@@ -484,7 +484,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>101001.0</v>
+        <v>101.0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -500,7 +500,7 @@
     <row r="3">
       <c r="A3" s="2">
         <f t="shared" ref="A3:A24" si="2">A2</f>
-        <v>101001</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -517,7 +517,7 @@
     <row r="4">
       <c r="A4" s="2">
         <f t="shared" si="2"/>
-        <v>101001</v>
+        <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -534,7 +534,7 @@
     <row r="5">
       <c r="A5" s="2">
         <f t="shared" si="2"/>
-        <v>101001</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -551,7 +551,7 @@
     <row r="6">
       <c r="A6" s="2">
         <f t="shared" si="2"/>
-        <v>101001</v>
+        <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -568,7 +568,7 @@
     <row r="7">
       <c r="A7" s="2">
         <f t="shared" si="2"/>
-        <v>101001</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
@@ -585,7 +585,7 @@
     <row r="8">
       <c r="A8" s="2">
         <f t="shared" si="2"/>
-        <v>101001</v>
+        <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
@@ -602,7 +602,7 @@
     <row r="9">
       <c r="A9" s="2">
         <f t="shared" si="2"/>
-        <v>101001</v>
+        <v>101</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>
@@ -619,7 +619,7 @@
     <row r="10">
       <c r="A10" s="2">
         <f t="shared" si="2"/>
-        <v>101001</v>
+        <v>101</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
@@ -636,7 +636,7 @@
     <row r="11">
       <c r="A11" s="2">
         <f t="shared" si="2"/>
-        <v>101001</v>
+        <v>101</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>4</v>
@@ -653,7 +653,7 @@
     <row r="12">
       <c r="A12" s="2">
         <f t="shared" si="2"/>
-        <v>101001</v>
+        <v>101</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
@@ -670,7 +670,7 @@
     <row r="13">
       <c r="A13" s="2">
         <f t="shared" si="2"/>
-        <v>101001</v>
+        <v>101</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>4</v>
@@ -687,7 +687,7 @@
     <row r="14">
       <c r="A14" s="2">
         <f t="shared" si="2"/>
-        <v>101001</v>
+        <v>101</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>4</v>
@@ -704,7 +704,7 @@
     <row r="15">
       <c r="A15" s="2">
         <f t="shared" si="2"/>
-        <v>101001</v>
+        <v>101</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>4</v>
@@ -721,7 +721,7 @@
     <row r="16">
       <c r="A16" s="2">
         <f t="shared" si="2"/>
-        <v>101001</v>
+        <v>101</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
@@ -738,7 +738,7 @@
     <row r="17">
       <c r="A17" s="2">
         <f t="shared" si="2"/>
-        <v>101001</v>
+        <v>101</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>4</v>
@@ -755,7 +755,7 @@
     <row r="18">
       <c r="A18" s="2">
         <f t="shared" si="2"/>
-        <v>101001</v>
+        <v>101</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>4</v>
@@ -772,7 +772,7 @@
     <row r="19">
       <c r="A19" s="2">
         <f t="shared" si="2"/>
-        <v>101001</v>
+        <v>101</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>4</v>
@@ -789,7 +789,7 @@
     <row r="20">
       <c r="A20" s="2">
         <f t="shared" si="2"/>
-        <v>101001</v>
+        <v>101</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>4</v>
@@ -806,7 +806,7 @@
     <row r="21">
       <c r="A21" s="2">
         <f t="shared" si="2"/>
-        <v>101001</v>
+        <v>101</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>4</v>
@@ -823,7 +823,7 @@
     <row r="22">
       <c r="A22" s="2">
         <f t="shared" si="2"/>
-        <v>101001</v>
+        <v>101</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
@@ -840,7 +840,7 @@
     <row r="23">
       <c r="A23" s="2">
         <f t="shared" si="2"/>
-        <v>101001</v>
+        <v>101</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>4</v>
@@ -857,7 +857,7 @@
     <row r="24">
       <c r="A24" s="2">
         <f t="shared" si="2"/>
-        <v>101001</v>
+        <v>101</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
@@ -874,7 +874,7 @@
     <row r="25">
       <c r="A25" s="2">
         <f>A24+1</f>
-        <v>101002</v>
+        <v>102</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>5</v>
@@ -890,7 +890,7 @@
     <row r="26">
       <c r="A26" s="2">
         <f t="shared" ref="A26:A47" si="4">A25</f>
-        <v>101002</v>
+        <v>102</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>5</v>
@@ -907,7 +907,7 @@
     <row r="27">
       <c r="A27" s="2">
         <f t="shared" si="4"/>
-        <v>101002</v>
+        <v>102</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>5</v>
@@ -924,7 +924,7 @@
     <row r="28">
       <c r="A28" s="2">
         <f t="shared" si="4"/>
-        <v>101002</v>
+        <v>102</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>5</v>
@@ -941,7 +941,7 @@
     <row r="29">
       <c r="A29" s="2">
         <f t="shared" si="4"/>
-        <v>101002</v>
+        <v>102</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>5</v>
@@ -958,7 +958,7 @@
     <row r="30">
       <c r="A30" s="2">
         <f t="shared" si="4"/>
-        <v>101002</v>
+        <v>102</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>5</v>
@@ -975,7 +975,7 @@
     <row r="31">
       <c r="A31" s="2">
         <f t="shared" si="4"/>
-        <v>101002</v>
+        <v>102</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>5</v>
@@ -992,7 +992,7 @@
     <row r="32">
       <c r="A32" s="2">
         <f t="shared" si="4"/>
-        <v>101002</v>
+        <v>102</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>5</v>
@@ -1009,7 +1009,7 @@
     <row r="33">
       <c r="A33" s="2">
         <f t="shared" si="4"/>
-        <v>101002</v>
+        <v>102</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>5</v>
@@ -1026,7 +1026,7 @@
     <row r="34">
       <c r="A34" s="2">
         <f t="shared" si="4"/>
-        <v>101002</v>
+        <v>102</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>5</v>
@@ -1043,7 +1043,7 @@
     <row r="35">
       <c r="A35" s="2">
         <f t="shared" si="4"/>
-        <v>101002</v>
+        <v>102</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>5</v>
@@ -1060,7 +1060,7 @@
     <row r="36">
       <c r="A36" s="2">
         <f t="shared" si="4"/>
-        <v>101002</v>
+        <v>102</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>5</v>
@@ -1077,7 +1077,7 @@
     <row r="37">
       <c r="A37" s="2">
         <f t="shared" si="4"/>
-        <v>101002</v>
+        <v>102</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>5</v>
@@ -1094,7 +1094,7 @@
     <row r="38">
       <c r="A38" s="2">
         <f t="shared" si="4"/>
-        <v>101002</v>
+        <v>102</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>5</v>
@@ -1111,7 +1111,7 @@
     <row r="39">
       <c r="A39" s="2">
         <f t="shared" si="4"/>
-        <v>101002</v>
+        <v>102</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>5</v>
@@ -1128,7 +1128,7 @@
     <row r="40">
       <c r="A40" s="2">
         <f t="shared" si="4"/>
-        <v>101002</v>
+        <v>102</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>5</v>
@@ -1145,7 +1145,7 @@
     <row r="41">
       <c r="A41" s="2">
         <f t="shared" si="4"/>
-        <v>101002</v>
+        <v>102</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>5</v>
@@ -1162,7 +1162,7 @@
     <row r="42">
       <c r="A42" s="2">
         <f t="shared" si="4"/>
-        <v>101002</v>
+        <v>102</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>5</v>
@@ -1179,7 +1179,7 @@
     <row r="43">
       <c r="A43" s="2">
         <f t="shared" si="4"/>
-        <v>101002</v>
+        <v>102</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>5</v>
@@ -1196,7 +1196,7 @@
     <row r="44">
       <c r="A44" s="2">
         <f t="shared" si="4"/>
-        <v>101002</v>
+        <v>102</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>5</v>
@@ -1213,7 +1213,7 @@
     <row r="45">
       <c r="A45" s="2">
         <f t="shared" si="4"/>
-        <v>101002</v>
+        <v>102</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>5</v>
@@ -1230,7 +1230,7 @@
     <row r="46">
       <c r="A46" s="2">
         <f t="shared" si="4"/>
-        <v>101002</v>
+        <v>102</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>5</v>
@@ -1247,7 +1247,7 @@
     <row r="47">
       <c r="A47" s="2">
         <f t="shared" si="4"/>
-        <v>101002</v>
+        <v>102</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>5</v>
@@ -1264,7 +1264,7 @@
     <row r="48">
       <c r="A48" s="2">
         <f>A47+1</f>
-        <v>101003</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>6</v>
@@ -1280,7 +1280,7 @@
     <row r="49">
       <c r="A49" s="2">
         <f t="shared" ref="A49:A70" si="6">A48</f>
-        <v>101003</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>6</v>
@@ -1297,7 +1297,7 @@
     <row r="50">
       <c r="A50" s="2">
         <f t="shared" si="6"/>
-        <v>101003</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>6</v>
@@ -1314,7 +1314,7 @@
     <row r="51">
       <c r="A51" s="2">
         <f t="shared" si="6"/>
-        <v>101003</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>6</v>
@@ -1331,7 +1331,7 @@
     <row r="52">
       <c r="A52" s="2">
         <f t="shared" si="6"/>
-        <v>101003</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>6</v>
@@ -1348,7 +1348,7 @@
     <row r="53">
       <c r="A53" s="2">
         <f t="shared" si="6"/>
-        <v>101003</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>6</v>
@@ -1365,7 +1365,7 @@
     <row r="54">
       <c r="A54" s="2">
         <f t="shared" si="6"/>
-        <v>101003</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>6</v>
@@ -1382,7 +1382,7 @@
     <row r="55">
       <c r="A55" s="2">
         <f t="shared" si="6"/>
-        <v>101003</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>6</v>
@@ -1399,7 +1399,7 @@
     <row r="56">
       <c r="A56" s="2">
         <f t="shared" si="6"/>
-        <v>101003</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>6</v>
@@ -1416,7 +1416,7 @@
     <row r="57">
       <c r="A57" s="2">
         <f t="shared" si="6"/>
-        <v>101003</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>6</v>
@@ -1433,7 +1433,7 @@
     <row r="58">
       <c r="A58" s="2">
         <f t="shared" si="6"/>
-        <v>101003</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>6</v>
@@ -1450,7 +1450,7 @@
     <row r="59">
       <c r="A59" s="2">
         <f t="shared" si="6"/>
-        <v>101003</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>6</v>
@@ -1467,7 +1467,7 @@
     <row r="60">
       <c r="A60" s="2">
         <f t="shared" si="6"/>
-        <v>101003</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>6</v>
@@ -1484,7 +1484,7 @@
     <row r="61">
       <c r="A61" s="2">
         <f t="shared" si="6"/>
-        <v>101003</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>6</v>
@@ -1501,7 +1501,7 @@
     <row r="62">
       <c r="A62" s="2">
         <f t="shared" si="6"/>
-        <v>101003</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>6</v>
@@ -1518,7 +1518,7 @@
     <row r="63">
       <c r="A63" s="2">
         <f t="shared" si="6"/>
-        <v>101003</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>6</v>
@@ -1535,7 +1535,7 @@
     <row r="64">
       <c r="A64" s="2">
         <f t="shared" si="6"/>
-        <v>101003</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>6</v>
@@ -1552,7 +1552,7 @@
     <row r="65">
       <c r="A65" s="2">
         <f t="shared" si="6"/>
-        <v>101003</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>6</v>
@@ -1569,7 +1569,7 @@
     <row r="66">
       <c r="A66" s="2">
         <f t="shared" si="6"/>
-        <v>101003</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>6</v>
@@ -1586,7 +1586,7 @@
     <row r="67">
       <c r="A67" s="2">
         <f t="shared" si="6"/>
-        <v>101003</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>6</v>
@@ -1603,7 +1603,7 @@
     <row r="68">
       <c r="A68" s="2">
         <f t="shared" si="6"/>
-        <v>101003</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>6</v>
@@ -1620,7 +1620,7 @@
     <row r="69">
       <c r="A69" s="2">
         <f t="shared" si="6"/>
-        <v>101003</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>6</v>
@@ -1637,7 +1637,7 @@
     <row r="70">
       <c r="A70" s="2">
         <f t="shared" si="6"/>
-        <v>101003</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>6</v>
@@ -1654,7 +1654,7 @@
     <row r="71">
       <c r="A71" s="2">
         <f>A70+1</f>
-        <v>101004</v>
+        <v>104</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>7</v>
@@ -1670,7 +1670,7 @@
     <row r="72">
       <c r="A72" s="2">
         <f t="shared" ref="A72:A93" si="8">A71</f>
-        <v>101004</v>
+        <v>104</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>7</v>
@@ -1687,7 +1687,7 @@
     <row r="73">
       <c r="A73" s="2">
         <f t="shared" si="8"/>
-        <v>101004</v>
+        <v>104</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>7</v>
@@ -1704,7 +1704,7 @@
     <row r="74">
       <c r="A74" s="2">
         <f t="shared" si="8"/>
-        <v>101004</v>
+        <v>104</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>7</v>
@@ -1721,7 +1721,7 @@
     <row r="75">
       <c r="A75" s="2">
         <f t="shared" si="8"/>
-        <v>101004</v>
+        <v>104</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>7</v>
@@ -1738,7 +1738,7 @@
     <row r="76">
       <c r="A76" s="2">
         <f t="shared" si="8"/>
-        <v>101004</v>
+        <v>104</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>7</v>
@@ -1755,7 +1755,7 @@
     <row r="77">
       <c r="A77" s="2">
         <f t="shared" si="8"/>
-        <v>101004</v>
+        <v>104</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>7</v>
@@ -1772,7 +1772,7 @@
     <row r="78">
       <c r="A78" s="2">
         <f t="shared" si="8"/>
-        <v>101004</v>
+        <v>104</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>7</v>
@@ -1789,7 +1789,7 @@
     <row r="79">
       <c r="A79" s="2">
         <f t="shared" si="8"/>
-        <v>101004</v>
+        <v>104</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>7</v>
@@ -1806,7 +1806,7 @@
     <row r="80">
       <c r="A80" s="2">
         <f t="shared" si="8"/>
-        <v>101004</v>
+        <v>104</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>7</v>
@@ -1823,7 +1823,7 @@
     <row r="81">
       <c r="A81" s="2">
         <f t="shared" si="8"/>
-        <v>101004</v>
+        <v>104</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>7</v>
@@ -1840,7 +1840,7 @@
     <row r="82">
       <c r="A82" s="2">
         <f t="shared" si="8"/>
-        <v>101004</v>
+        <v>104</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>7</v>
@@ -1857,7 +1857,7 @@
     <row r="83">
       <c r="A83" s="2">
         <f t="shared" si="8"/>
-        <v>101004</v>
+        <v>104</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>7</v>
@@ -1874,7 +1874,7 @@
     <row r="84">
       <c r="A84" s="2">
         <f t="shared" si="8"/>
-        <v>101004</v>
+        <v>104</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>7</v>
@@ -1891,7 +1891,7 @@
     <row r="85">
       <c r="A85" s="2">
         <f t="shared" si="8"/>
-        <v>101004</v>
+        <v>104</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>7</v>
@@ -1908,7 +1908,7 @@
     <row r="86">
       <c r="A86" s="2">
         <f t="shared" si="8"/>
-        <v>101004</v>
+        <v>104</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>7</v>
@@ -1925,7 +1925,7 @@
     <row r="87">
       <c r="A87" s="2">
         <f t="shared" si="8"/>
-        <v>101004</v>
+        <v>104</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>7</v>
@@ -1942,7 +1942,7 @@
     <row r="88">
       <c r="A88" s="2">
         <f t="shared" si="8"/>
-        <v>101004</v>
+        <v>104</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>7</v>
@@ -1959,7 +1959,7 @@
     <row r="89">
       <c r="A89" s="2">
         <f t="shared" si="8"/>
-        <v>101004</v>
+        <v>104</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>7</v>
@@ -1976,7 +1976,7 @@
     <row r="90">
       <c r="A90" s="2">
         <f t="shared" si="8"/>
-        <v>101004</v>
+        <v>104</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>7</v>
@@ -1993,7 +1993,7 @@
     <row r="91">
       <c r="A91" s="2">
         <f t="shared" si="8"/>
-        <v>101004</v>
+        <v>104</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>7</v>
@@ -2010,7 +2010,7 @@
     <row r="92">
       <c r="A92" s="2">
         <f t="shared" si="8"/>
-        <v>101004</v>
+        <v>104</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>7</v>
@@ -2027,7 +2027,7 @@
     <row r="93">
       <c r="A93" s="2">
         <f t="shared" si="8"/>
-        <v>101004</v>
+        <v>104</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>7</v>
@@ -2044,7 +2044,7 @@
     <row r="94">
       <c r="A94" s="2">
         <f>A93+1</f>
-        <v>101005</v>
+        <v>105</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>8</v>
@@ -2060,7 +2060,7 @@
     <row r="95">
       <c r="A95" s="2">
         <f t="shared" ref="A95:A116" si="10">A94</f>
-        <v>101005</v>
+        <v>105</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>8</v>
@@ -2077,7 +2077,7 @@
     <row r="96">
       <c r="A96" s="2">
         <f t="shared" si="10"/>
-        <v>101005</v>
+        <v>105</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>8</v>
@@ -2094,7 +2094,7 @@
     <row r="97">
       <c r="A97" s="2">
         <f t="shared" si="10"/>
-        <v>101005</v>
+        <v>105</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>8</v>
@@ -2111,7 +2111,7 @@
     <row r="98">
       <c r="A98" s="2">
         <f t="shared" si="10"/>
-        <v>101005</v>
+        <v>105</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>8</v>
@@ -2128,7 +2128,7 @@
     <row r="99">
       <c r="A99" s="2">
         <f t="shared" si="10"/>
-        <v>101005</v>
+        <v>105</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>8</v>
@@ -2145,7 +2145,7 @@
     <row r="100">
       <c r="A100" s="2">
         <f t="shared" si="10"/>
-        <v>101005</v>
+        <v>105</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>8</v>
@@ -2162,7 +2162,7 @@
     <row r="101">
       <c r="A101" s="2">
         <f t="shared" si="10"/>
-        <v>101005</v>
+        <v>105</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>8</v>
@@ -2179,7 +2179,7 @@
     <row r="102">
       <c r="A102" s="2">
         <f t="shared" si="10"/>
-        <v>101005</v>
+        <v>105</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>8</v>
@@ -2196,7 +2196,7 @@
     <row r="103">
       <c r="A103" s="2">
         <f t="shared" si="10"/>
-        <v>101005</v>
+        <v>105</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>8</v>
@@ -2213,7 +2213,7 @@
     <row r="104">
       <c r="A104" s="2">
         <f t="shared" si="10"/>
-        <v>101005</v>
+        <v>105</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>8</v>
@@ -2230,7 +2230,7 @@
     <row r="105">
       <c r="A105" s="2">
         <f t="shared" si="10"/>
-        <v>101005</v>
+        <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>8</v>
@@ -2247,7 +2247,7 @@
     <row r="106">
       <c r="A106" s="2">
         <f t="shared" si="10"/>
-        <v>101005</v>
+        <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>8</v>
@@ -2264,7 +2264,7 @@
     <row r="107">
       <c r="A107" s="2">
         <f t="shared" si="10"/>
-        <v>101005</v>
+        <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>8</v>
@@ -2281,7 +2281,7 @@
     <row r="108">
       <c r="A108" s="2">
         <f t="shared" si="10"/>
-        <v>101005</v>
+        <v>105</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>8</v>
@@ -2298,7 +2298,7 @@
     <row r="109">
       <c r="A109" s="2">
         <f t="shared" si="10"/>
-        <v>101005</v>
+        <v>105</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>8</v>
@@ -2315,7 +2315,7 @@
     <row r="110">
       <c r="A110" s="2">
         <f t="shared" si="10"/>
-        <v>101005</v>
+        <v>105</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>8</v>
@@ -2332,7 +2332,7 @@
     <row r="111">
       <c r="A111" s="2">
         <f t="shared" si="10"/>
-        <v>101005</v>
+        <v>105</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>8</v>
@@ -2349,7 +2349,7 @@
     <row r="112">
       <c r="A112" s="2">
         <f t="shared" si="10"/>
-        <v>101005</v>
+        <v>105</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>8</v>
@@ -2366,7 +2366,7 @@
     <row r="113">
       <c r="A113" s="2">
         <f t="shared" si="10"/>
-        <v>101005</v>
+        <v>105</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>8</v>
@@ -2383,7 +2383,7 @@
     <row r="114">
       <c r="A114" s="2">
         <f t="shared" si="10"/>
-        <v>101005</v>
+        <v>105</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>8</v>
@@ -2400,7 +2400,7 @@
     <row r="115">
       <c r="A115" s="2">
         <f t="shared" si="10"/>
-        <v>101005</v>
+        <v>105</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>8</v>
@@ -2417,7 +2417,7 @@
     <row r="116">
       <c r="A116" s="2">
         <f t="shared" si="10"/>
-        <v>101005</v>
+        <v>105</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>8</v>
@@ -2434,7 +2434,7 @@
     <row r="117">
       <c r="A117" s="2">
         <f>A116+1</f>
-        <v>101006</v>
+        <v>106</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>9</v>
@@ -2450,7 +2450,7 @@
     <row r="118">
       <c r="A118" s="2">
         <f t="shared" ref="A118:A139" si="12">A117</f>
-        <v>101006</v>
+        <v>106</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>9</v>
@@ -2467,7 +2467,7 @@
     <row r="119">
       <c r="A119" s="2">
         <f t="shared" si="12"/>
-        <v>101006</v>
+        <v>106</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>9</v>
@@ -2484,7 +2484,7 @@
     <row r="120">
       <c r="A120" s="2">
         <f t="shared" si="12"/>
-        <v>101006</v>
+        <v>106</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>9</v>
@@ -2501,7 +2501,7 @@
     <row r="121">
       <c r="A121" s="2">
         <f t="shared" si="12"/>
-        <v>101006</v>
+        <v>106</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>9</v>
@@ -2518,7 +2518,7 @@
     <row r="122">
       <c r="A122" s="2">
         <f t="shared" si="12"/>
-        <v>101006</v>
+        <v>106</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>9</v>
@@ -2535,7 +2535,7 @@
     <row r="123">
       <c r="A123" s="2">
         <f t="shared" si="12"/>
-        <v>101006</v>
+        <v>106</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>9</v>
@@ -2552,7 +2552,7 @@
     <row r="124">
       <c r="A124" s="2">
         <f t="shared" si="12"/>
-        <v>101006</v>
+        <v>106</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>9</v>
@@ -2569,7 +2569,7 @@
     <row r="125">
       <c r="A125" s="2">
         <f t="shared" si="12"/>
-        <v>101006</v>
+        <v>106</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>9</v>
@@ -2586,7 +2586,7 @@
     <row r="126">
       <c r="A126" s="2">
         <f t="shared" si="12"/>
-        <v>101006</v>
+        <v>106</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>9</v>
@@ -2603,7 +2603,7 @@
     <row r="127">
       <c r="A127" s="2">
         <f t="shared" si="12"/>
-        <v>101006</v>
+        <v>106</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>9</v>
@@ -2620,7 +2620,7 @@
     <row r="128">
       <c r="A128" s="2">
         <f t="shared" si="12"/>
-        <v>101006</v>
+        <v>106</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>9</v>
@@ -2637,7 +2637,7 @@
     <row r="129">
       <c r="A129" s="2">
         <f t="shared" si="12"/>
-        <v>101006</v>
+        <v>106</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>9</v>
@@ -2654,7 +2654,7 @@
     <row r="130">
       <c r="A130" s="2">
         <f t="shared" si="12"/>
-        <v>101006</v>
+        <v>106</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>9</v>
@@ -2671,7 +2671,7 @@
     <row r="131">
       <c r="A131" s="2">
         <f t="shared" si="12"/>
-        <v>101006</v>
+        <v>106</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>9</v>
@@ -2688,7 +2688,7 @@
     <row r="132">
       <c r="A132" s="2">
         <f t="shared" si="12"/>
-        <v>101006</v>
+        <v>106</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>9</v>
@@ -2705,7 +2705,7 @@
     <row r="133">
       <c r="A133" s="2">
         <f t="shared" si="12"/>
-        <v>101006</v>
+        <v>106</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>9</v>
@@ -2722,7 +2722,7 @@
     <row r="134">
       <c r="A134" s="2">
         <f t="shared" si="12"/>
-        <v>101006</v>
+        <v>106</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>9</v>
@@ -2739,7 +2739,7 @@
     <row r="135">
       <c r="A135" s="2">
         <f t="shared" si="12"/>
-        <v>101006</v>
+        <v>106</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>9</v>
@@ -2756,7 +2756,7 @@
     <row r="136">
       <c r="A136" s="2">
         <f t="shared" si="12"/>
-        <v>101006</v>
+        <v>106</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>9</v>
@@ -2773,7 +2773,7 @@
     <row r="137">
       <c r="A137" s="2">
         <f t="shared" si="12"/>
-        <v>101006</v>
+        <v>106</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>9</v>
@@ -2790,7 +2790,7 @@
     <row r="138">
       <c r="A138" s="2">
         <f t="shared" si="12"/>
-        <v>101006</v>
+        <v>106</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>9</v>
@@ -2807,7 +2807,7 @@
     <row r="139">
       <c r="A139" s="2">
         <f t="shared" si="12"/>
-        <v>101006</v>
+        <v>106</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>9</v>
